--- a/data/population_growth_annual_percent.xlsx
+++ b/data/population_growth_annual_percent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonMc\Documents\Flatiron\Population_and_CO2_emissions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6AB032-D932-44AA-8E55-DD38CEA44B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887A6488-7CE8-4A26-A462-AF974FEB66A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="192" windowWidth="11412" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="population_growth_annual_percen" sheetId="1" r:id="rId1"/>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1121,7 +1121,7 @@
         <v>28126</v>
       </c>
       <c r="T1" s="1">
-        <v>28941</v>
+        <v>28491</v>
       </c>
       <c r="U1" s="1">
         <v>28856</v>
@@ -41262,6 +41262,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A3:T3 A12:BI12 A11:L11 Z11 A7:BI8 A4:G4 J4:BI4 A39:BI44 A38 C38:BI38 A72:BI72 A69 C69:V69 A92:BI93 A91 C91:AB91 A106:BI106 A105 O105 A132:BI132 A131 L131 A185:BI186 A181:B181 E181:BI181 A191:BI195 A190:C190 J190:BI190 A163:BI166 A162:E162 N162:AA162 P131:BI131 A134:BI134 A133:G133 L133:AB133 A148:BI148 A147:M147 O147:R147 U147:Z147 A152:BI156 A151:S151 U151:Z151 A158:BI158 A157:P157 V157:AS157 A182:L182 S182:BI182 A198:BI203 A196:P196 V196:BI196 A212:BI218 A211:Q211 S211:AO211 A2:P2 AE2:BI2 AC3:BI3 A197:AY197 BE197:BI197 A206:BI207 A204:AH204 A205:AQ205 AT205:BI205 A210:BI210 A208:AI208 AP208:AT208 AZ208:BI208 A209:BD209 AX211 U2:Z2 A5:AE5 A6:AK6 AN6:AX6 BG6:BI6 A10:AS10 A9:AE9 BA9:BI9 BB10:BD10 AC11:BI11 A14:BI15 A13:O13 R13 U13:W13 Z13:BI13 A17:BI19 A16:U16 Z16:BI16 A21:BI22 A20:Y20 AB20:AC20 A25:BI25 A23:AC23 AN23:AU23 A24:AH24 BC24:BE24 A27:BI30 A26:K26 Q26:AE26 AH26:AX26 BA26:BD26 BG26 A32:BI35 A31:AF31 AJ31:BI31 A37:BI37 A36:O36 S36:BI36 A46:BI46 A45:M45 P45:BI45 A48:BI49 A47:AT47 AZ47:BF47 A52:BI52 A50 C50:J50 M50:U50 W50:AD50 AG50:AI50 AS50:AW50 A51:O51 T51:V51 AA51:AR51 BA51:BI51 A55:BI58 A53:U53 AG53:AJ53 AP53:BI53 A54:U54 AA54:BI54 A62:BI62 A59:AF59 AM59:BI59 A60:BA60 BE60:BI60 A61:AE61 AN61:AO61 BD61:BI61 A64:BI65 A63:I63 L63:BI63 A68:BI68 A66:AE66 AL66:AV66 AZ66:BI66 A67:M67 O67:AL67 AZ67:BI67 Y69:AZ69 BE69:BI69 A70:O70 S70:V70 X70:BI70 A71:AD71 AF71:AH71 BC71:BF71 BI71 A74:BI76 A73:R73 AB73:AD73 AJ73:AW73 AY73:BD73 A81:BI82 A77:J77 T77:BI77 A78:AY78 A79:H79 U79:AA79 AF79:BI79 A80:Q80 T80:AE80 AI80:AT80 AY80 BE80 BH80:BI80 A85:BI85 A83:V83 AG83:AJ83 AR83:BI83 A84:AQ84 AS84:BH84 A87:BI87 A86:AE86 AH86:AI86 AQ86:AU86 A89:BI90 A88:V88 AE91:BI91 A95:BI95 A94:AX94 AZ94:BI94 A97:BI98 A96:BC96 A101:BI101 A99:AW99 AY99 A100:AF100 AQ100:BI100 A104:BI104 A102:AH102 AJ102:BI102 A103:O103 V103:BI103 AF105:BI105 A109:BI109 A107:AL107 AP107:BB107 BF107:BG107 BI107 A108:AE108 AG108:BI108 A112:BI115 A110:R110 V110:AV110 AX110:BG110 A111:AA111 AI111:BI111 A118:BI118 A116:AP116 AW116:BI116 A117:AF117 BI117 A122:BI122 A119:AD119 A120:M120 T120:BI120 A121:U121 Y121:AF121 AL121:AY121 BE121:BI121 A125:BI127 A123:G123 I123:BI123 A124:AG124 A130:BI130 A128:AK128 AN128:BI128 A129:AD129 AJ129:AP129 AR129:BH129 AF133:AJ133 AP133:BF133 A137:BI146 A135:AF135 AJ135:AQ135 AZ135:BI135 A136:AA136 AD136:BI136 AH147:AL147 AQ147:BF147 A150:AK150 A149:AZ149 BD149:BI149 AV150:BI150 AB151:BI151 BC157:BI157 A161:BI161 A159:AM159 AW159:AX159 AZ159 BF159 A160:AS160 BH160:BI160 AH162:AY162 BH162:BI162 A170:BI172 A167:AE167 A168:AG168 AX168:BF168 A169:AE169 AK169:BI169 A174:BI174 A173:Z173 AB173:AQ173 AS173:BH173 A176:BI177 A175:AF175 AK175:BI175 A180:AD180 A178:X178 Z178:BI178 A179:AI179 AJ180:BI180 A183:AN183 AT183:BI183 A184:AF184 AJ184 AN184:BI184 A189:AY189 A187:AL187 AP187:AX187 BA187:BI187 A188:W188 Y188:AQ188 AT188:AY188 BA188:BI188 BH189:BI189 AY50:BI50" numberStoredAsText="1"/>
   </ignoredErrors>
